--- a/IntegratedSystem/Excel Optimization/Basic-OPtimization.xlsx
+++ b/IntegratedSystem/Excel Optimization/Basic-OPtimization.xlsx
@@ -14,6 +14,53 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$2:$B$4</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$B$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$B$20</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$17</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$D$18</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$D$19</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$D$20</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Variables</t>
   </si>
@@ -384,7 +431,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -411,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.0000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,7 +480,7 @@
       </c>
       <c r="B9">
         <f>3*B2+2*B3-B4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -455,7 +502,7 @@
       </c>
       <c r="B15">
         <f>B2+3*B3-3*B4</f>
-        <v>0</v>
+        <v>9.0000000000000018</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -470,7 +517,7 @@
       </c>
       <c r="B16">
         <f>2*B2+3*B3-B4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -479,24 +526,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>3*B2-2*B3+B4</f>
+        <v>4.9999999999999973</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B2</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>B3</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
+      </c>
+      <c r="B20">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
